--- a/negation/KB/MAGGIC targets.xlsx
+++ b/negation/KB/MAGGIC targets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MartijnLaptop3\Documents\GitHub\Prep\negation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MartijnLaptop3\Documents\GitHub\Prep\negation\KB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB7BB64-F005-4183-81CF-C7A4389C56E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D5EB3-27F3-4E1C-849B-30874C397AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
   <si>
     <t>mmhg</t>
   </si>
@@ -394,9 +394,6 @@
   </si>
   <si>
     <t>gevaarlijk: non-word characters?</t>
-  </si>
-  <si>
-    <t>heart failure?</t>
   </si>
 </sst>
 </file>
@@ -799,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N568"/>
+  <dimension ref="A1:N567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1125,14 +1122,9 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9"/>
-      <c r="F9"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:14">
       <c r="C10" s="4"/>
@@ -1158,6 +1150,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:14">
       <c r="C15" s="4"/>
@@ -1175,7 +1168,6 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="4"/>
@@ -1211,12 +1203,12 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="4"/>
@@ -1434,27 +1426,27 @@
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="2:8">
+      <c r="B69" s="5"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
+      <c r="H69" s="5"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="5"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="H70" s="5"/>
     </row>
     <row r="71" spans="2:8">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
+      <c r="H71" s="5"/>
     </row>
     <row r="72" spans="2:8">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="H72" s="5"/>
     </row>
     <row r="73" spans="2:8">
       <c r="C73" s="4"/>
@@ -1475,12 +1467,12 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
+      <c r="H76" s="5"/>
     </row>
     <row r="77" spans="2:8">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="H77" s="5"/>
     </row>
     <row r="78" spans="2:8">
       <c r="C78" s="4"/>
@@ -1501,6 +1493,7 @@
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
+      <c r="H81" s="5"/>
     </row>
     <row r="82" spans="3:8">
       <c r="C82" s="4"/>
@@ -1512,7 +1505,6 @@
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
-      <c r="H83" s="5"/>
     </row>
     <row r="84" spans="3:8">
       <c r="C84" s="4"/>
@@ -1538,12 +1530,12 @@
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
+      <c r="H88" s="5"/>
     </row>
     <row r="89" spans="3:8">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="H89" s="5"/>
     </row>
     <row r="90" spans="3:8">
       <c r="C90" s="4"/>
@@ -1559,12 +1551,12 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
+      <c r="H92" s="5"/>
     </row>
     <row r="93" spans="3:8">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="H93" s="5"/>
     </row>
     <row r="94" spans="3:8">
       <c r="C94" s="4"/>
@@ -1585,46 +1577,46 @@
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
+      <c r="H97" s="5"/>
     </row>
     <row r="98" spans="3:9">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="H98" s="5"/>
     </row>
     <row r="99" spans="3:9">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
+      <c r="H99" s="5"/>
     </row>
     <row r="100" spans="3:9">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="H100" s="5"/>
     </row>
     <row r="101" spans="3:9">
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
+      <c r="H101" s="5"/>
     </row>
     <row r="102" spans="3:9">
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="H102" s="5"/>
     </row>
     <row r="103" spans="3:9">
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
     </row>
     <row r="104" spans="3:9">
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
     </row>
     <row r="105" spans="3:9">
       <c r="C105" s="4"/>
@@ -1655,12 +1647,12 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
+      <c r="H110" s="5"/>
     </row>
     <row r="111" spans="3:9">
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="H111" s="5"/>
     </row>
     <row r="112" spans="3:9">
       <c r="C112" s="4"/>
@@ -1671,30 +1663,30 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
+      <c r="H113" s="5"/>
     </row>
     <row r="114" spans="3:9">
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="H114" s="5"/>
     </row>
     <row r="115" spans="3:9">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
     </row>
     <row r="116" spans="3:9">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
     </row>
     <row r="117" spans="3:9">
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="H117" s="5"/>
     </row>
     <row r="118" spans="3:9">
       <c r="C118" s="4"/>
@@ -1725,6 +1717,7 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
+      <c r="H123" s="5"/>
     </row>
     <row r="124" spans="3:9">
       <c r="C124" s="4"/>
@@ -1737,6 +1730,7 @@
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
     </row>
     <row r="126" spans="3:9">
       <c r="C126" s="4"/>
@@ -1749,8 +1743,6 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
     </row>
     <row r="128" spans="3:9">
       <c r="C128" s="4"/>
@@ -1781,12 +1773,12 @@
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
+      <c r="H133" s="5"/>
     </row>
     <row r="134" spans="3:9">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
-      <c r="H134" s="5"/>
     </row>
     <row r="135" spans="3:9">
       <c r="C135" s="4"/>
@@ -1802,13 +1794,14 @@
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
     </row>
     <row r="138" spans="3:9">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
     </row>
     <row r="139" spans="3:9">
       <c r="C139" s="4"/>
@@ -1820,7 +1813,6 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
-      <c r="H140" s="5"/>
     </row>
     <row r="141" spans="3:9">
       <c r="C141" s="4"/>
@@ -1856,23 +1848,23 @@
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
+      <c r="H147" s="5"/>
     </row>
     <row r="148" spans="3:9">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
-      <c r="H148" s="5"/>
     </row>
     <row r="149" spans="3:9">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
+      <c r="H149" s="5"/>
     </row>
     <row r="150" spans="3:9">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
-      <c r="H150" s="5"/>
     </row>
     <row r="151" spans="3:9">
       <c r="C151" s="4"/>
@@ -1883,24 +1875,24 @@
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
     </row>
     <row r="153" spans="3:9">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
     </row>
     <row r="154" spans="3:9">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
+      <c r="H154" s="5"/>
     </row>
     <row r="155" spans="3:9">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
-      <c r="H155" s="5"/>
     </row>
     <row r="156" spans="3:9">
       <c r="C156" s="4"/>
@@ -1916,12 +1908,12 @@
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
+      <c r="H158" s="5"/>
     </row>
     <row r="159" spans="3:9">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
-      <c r="H159" s="5"/>
     </row>
     <row r="160" spans="3:9">
       <c r="C160" s="4"/>
@@ -1932,13 +1924,14 @@
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
     </row>
     <row r="162" spans="3:9">
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
     </row>
     <row r="163" spans="3:9">
       <c r="C163" s="4"/>
@@ -1950,7 +1943,6 @@
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
-      <c r="H164" s="5"/>
     </row>
     <row r="165" spans="3:9">
       <c r="C165" s="4"/>
@@ -1976,12 +1968,12 @@
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
+      <c r="H169" s="5"/>
     </row>
     <row r="170" spans="3:9">
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
-      <c r="H170" s="5"/>
     </row>
     <row r="171" spans="3:9">
       <c r="C171" s="4"/>
@@ -1997,12 +1989,12 @@
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
+      <c r="H173" s="5"/>
     </row>
     <row r="174" spans="3:9">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
-      <c r="H174" s="5"/>
     </row>
     <row r="175" spans="3:9">
       <c r="C175" s="4"/>
@@ -2043,6 +2035,7 @@
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
+      <c r="H182" s="5"/>
     </row>
     <row r="183" spans="3:8">
       <c r="C183" s="4"/>
@@ -2060,7 +2053,6 @@
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
-      <c r="H185" s="5"/>
     </row>
     <row r="186" spans="3:8">
       <c r="C186" s="4"/>
@@ -2071,12 +2063,12 @@
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
+      <c r="H187" s="5"/>
     </row>
     <row r="188" spans="3:8">
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
-      <c r="H188" s="5"/>
     </row>
     <row r="189" spans="3:8">
       <c r="C189" s="4"/>
@@ -2152,12 +2144,12 @@
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
+      <c r="H203" s="5"/>
     </row>
     <row r="204" spans="3:8">
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
-      <c r="H204" s="5"/>
     </row>
     <row r="205" spans="3:8">
       <c r="C205" s="4"/>
@@ -2238,12 +2230,12 @@
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
+      <c r="H220" s="5"/>
     </row>
     <row r="221" spans="3:8">
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
-      <c r="H221" s="5"/>
     </row>
     <row r="222" spans="3:8">
       <c r="C222" s="4"/>
@@ -2264,6 +2256,7 @@
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
+      <c r="H225" s="5"/>
     </row>
     <row r="226" spans="3:8">
       <c r="C226" s="4"/>
@@ -2275,7 +2268,6 @@
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
-      <c r="H227" s="5"/>
     </row>
     <row r="228" spans="3:8">
       <c r="C228" s="4"/>
@@ -2286,12 +2278,12 @@
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
+      <c r="H229" s="5"/>
     </row>
     <row r="230" spans="3:8">
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
-      <c r="H230" s="5"/>
     </row>
     <row r="231" spans="3:8">
       <c r="C231" s="4"/>
@@ -2322,12 +2314,12 @@
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
+      <c r="H236" s="5"/>
     </row>
     <row r="237" spans="3:8">
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
-      <c r="H237" s="5"/>
     </row>
     <row r="238" spans="3:8">
       <c r="C238" s="4"/>
@@ -2348,23 +2340,23 @@
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
+      <c r="H241" s="5"/>
     </row>
     <row r="242" spans="3:9">
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
-      <c r="H242" s="5"/>
     </row>
     <row r="243" spans="3:9">
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
+      <c r="H243" s="5"/>
     </row>
     <row r="244" spans="3:9">
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
-      <c r="H244" s="5"/>
     </row>
     <row r="245" spans="3:9">
       <c r="C245" s="4"/>
@@ -2380,13 +2372,13 @@
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
     </row>
     <row r="248" spans="3:9">
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
-      <c r="H248" s="5"/>
-      <c r="I248" s="5"/>
     </row>
     <row r="249" spans="3:9">
       <c r="C249" s="4"/>
@@ -2397,12 +2389,12 @@
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
+      <c r="H250" s="5"/>
     </row>
     <row r="251" spans="3:9">
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
-      <c r="H251" s="5"/>
     </row>
     <row r="252" spans="3:9">
       <c r="C252" s="4"/>
@@ -2428,19 +2420,19 @@
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
+      <c r="H256" s="5"/>
     </row>
     <row r="257" spans="3:9">
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="H257" s="5"/>
+      <c r="I257" s="5"/>
     </row>
     <row r="258" spans="3:9">
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
-      <c r="H258" s="5"/>
-      <c r="I258" s="5"/>
     </row>
     <row r="259" spans="3:9">
       <c r="C259" s="4"/>
@@ -2466,12 +2458,12 @@
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
+      <c r="H263" s="5"/>
     </row>
     <row r="264" spans="3:9">
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
-      <c r="H264" s="5"/>
     </row>
     <row r="265" spans="3:9">
       <c r="C265" s="4"/>
@@ -2497,6 +2489,7 @@
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
+      <c r="H269" s="5"/>
     </row>
     <row r="270" spans="3:9">
       <c r="C270" s="4"/>
@@ -2508,175 +2501,174 @@
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
-      <c r="H271" s="5"/>
     </row>
     <row r="272" spans="3:9">
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
     </row>
-    <row r="273" spans="3:8">
+    <row r="273" spans="3:9">
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
     </row>
-    <row r="274" spans="3:8">
+    <row r="274" spans="3:9">
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
     </row>
-    <row r="275" spans="3:8">
+    <row r="275" spans="3:9">
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
     </row>
-    <row r="276" spans="3:8">
+    <row r="276" spans="3:9">
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
     </row>
-    <row r="277" spans="3:8">
+    <row r="277" spans="3:9">
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
     </row>
-    <row r="278" spans="3:8">
+    <row r="278" spans="3:9">
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
     </row>
-    <row r="279" spans="3:8">
+    <row r="279" spans="3:9">
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
     </row>
-    <row r="280" spans="3:8">
+    <row r="280" spans="3:9">
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
-    </row>
-    <row r="281" spans="3:8">
+      <c r="H280" s="5"/>
+    </row>
+    <row r="281" spans="3:9">
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
-      <c r="H281" s="5"/>
-    </row>
-    <row r="282" spans="3:8">
+    </row>
+    <row r="282" spans="3:9">
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
     </row>
-    <row r="283" spans="3:8">
+    <row r="283" spans="3:9">
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
     </row>
-    <row r="284" spans="3:8">
+    <row r="284" spans="3:9">
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
     </row>
-    <row r="285" spans="3:8">
+    <row r="285" spans="3:9">
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
     </row>
-    <row r="286" spans="3:8">
+    <row r="286" spans="3:9">
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
     </row>
-    <row r="287" spans="3:8">
+    <row r="287" spans="3:9">
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
     </row>
-    <row r="288" spans="3:8">
+    <row r="288" spans="3:9">
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
-    </row>
-    <row r="289" spans="3:9">
+      <c r="H288" s="5"/>
+      <c r="I288" s="5"/>
+    </row>
+    <row r="289" spans="3:8">
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
-      <c r="H289" s="5"/>
-      <c r="I289" s="5"/>
-    </row>
-    <row r="290" spans="3:9">
+    </row>
+    <row r="290" spans="3:8">
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
     </row>
-    <row r="291" spans="3:9">
+    <row r="291" spans="3:8">
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
     </row>
-    <row r="292" spans="3:9">
+    <row r="292" spans="3:8">
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
-    </row>
-    <row r="293" spans="3:9">
+      <c r="H292" s="5"/>
+    </row>
+    <row r="293" spans="3:8">
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
-      <c r="H293" s="5"/>
-    </row>
-    <row r="294" spans="3:9">
+    </row>
+    <row r="294" spans="3:8">
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
     </row>
-    <row r="295" spans="3:9">
+    <row r="295" spans="3:8">
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
     </row>
-    <row r="296" spans="3:9">
+    <row r="296" spans="3:8">
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
-    </row>
-    <row r="297" spans="3:9">
+      <c r="H296" s="5"/>
+    </row>
+    <row r="297" spans="3:8">
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
-      <c r="H297" s="5"/>
-    </row>
-    <row r="298" spans="3:9">
+    </row>
+    <row r="298" spans="3:8">
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
     </row>
-    <row r="299" spans="3:9">
+    <row r="299" spans="3:8">
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
     </row>
-    <row r="300" spans="3:9">
+    <row r="300" spans="3:8">
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
-    </row>
-    <row r="301" spans="3:9">
+      <c r="H300" s="5"/>
+    </row>
+    <row r="301" spans="3:8">
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
-      <c r="H301" s="5"/>
-    </row>
-    <row r="302" spans="3:9">
+    </row>
+    <row r="302" spans="3:8">
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
     </row>
-    <row r="303" spans="3:9">
+    <row r="303" spans="3:8">
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
     </row>
-    <row r="304" spans="3:9">
+    <row r="304" spans="3:8">
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
@@ -2690,13 +2682,13 @@
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
+      <c r="H306" s="5"/>
+      <c r="I306" s="5"/>
     </row>
     <row r="307" spans="3:9">
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
-      <c r="H307" s="5"/>
-      <c r="I307" s="5"/>
     </row>
     <row r="308" spans="3:9">
       <c r="C308" s="4"/>
@@ -2737,12 +2729,12 @@
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
+      <c r="H315" s="5"/>
     </row>
     <row r="316" spans="3:9">
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
-      <c r="H316" s="5"/>
     </row>
     <row r="317" spans="3:9">
       <c r="C317" s="4"/>
@@ -2758,6 +2750,7 @@
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
+      <c r="H319" s="5"/>
     </row>
     <row r="320" spans="3:9">
       <c r="C320" s="4"/>
@@ -2769,12 +2762,12 @@
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
-      <c r="H321" s="5"/>
     </row>
     <row r="322" spans="3:8">
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
+      <c r="H322" s="5"/>
     </row>
     <row r="323" spans="3:8">
       <c r="C323" s="4"/>
@@ -2786,7 +2779,6 @@
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
-      <c r="H324" s="5"/>
     </row>
     <row r="325" spans="3:8">
       <c r="C325" s="4"/>
@@ -2822,12 +2814,12 @@
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
+      <c r="H331" s="5"/>
     </row>
     <row r="332" spans="3:8">
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
-      <c r="H332" s="5"/>
     </row>
     <row r="333" spans="3:8">
       <c r="C333" s="4"/>
@@ -2849,91 +2841,91 @@
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
     </row>
-    <row r="337" spans="3:5">
+    <row r="337" spans="3:8">
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
     </row>
-    <row r="338" spans="3:5">
+    <row r="338" spans="3:8">
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
     </row>
-    <row r="339" spans="3:5">
+    <row r="339" spans="3:8">
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
     </row>
-    <row r="340" spans="3:5">
+    <row r="340" spans="3:8">
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
     </row>
-    <row r="341" spans="3:5">
+    <row r="341" spans="3:8">
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
     </row>
-    <row r="342" spans="3:5">
+    <row r="342" spans="3:8">
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
     </row>
-    <row r="343" spans="3:5">
+    <row r="343" spans="3:8">
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
     </row>
-    <row r="344" spans="3:5">
+    <row r="344" spans="3:8">
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
     </row>
-    <row r="345" spans="3:5">
+    <row r="345" spans="3:8">
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
     </row>
-    <row r="346" spans="3:5">
+    <row r="346" spans="3:8">
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
     </row>
-    <row r="347" spans="3:5">
+    <row r="347" spans="3:8">
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
     </row>
-    <row r="348" spans="3:5">
+    <row r="348" spans="3:8">
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
     </row>
-    <row r="349" spans="3:5">
+    <row r="349" spans="3:8">
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
     </row>
-    <row r="350" spans="3:5">
+    <row r="350" spans="3:8">
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
     </row>
-    <row r="351" spans="3:5">
+    <row r="351" spans="3:8">
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
     </row>
-    <row r="352" spans="3:5">
+    <row r="352" spans="3:8">
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
+      <c r="H352" s="5"/>
     </row>
     <row r="353" spans="3:8">
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
-      <c r="H353" s="5"/>
     </row>
     <row r="354" spans="3:8">
       <c r="C354" s="4"/>
@@ -2944,12 +2936,12 @@
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
+      <c r="H355" s="5"/>
     </row>
     <row r="356" spans="3:8">
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
-      <c r="H356" s="5"/>
     </row>
     <row r="357" spans="3:8">
       <c r="C357" s="4"/>
@@ -2965,6 +2957,7 @@
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
+      <c r="H359" s="5"/>
     </row>
     <row r="360" spans="3:8">
       <c r="C360" s="4"/>
@@ -2976,29 +2969,28 @@
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
-      <c r="H361" s="5"/>
     </row>
     <row r="362" spans="3:8">
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
+      <c r="H362" s="5"/>
     </row>
     <row r="363" spans="3:8">
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
-      <c r="H363" s="5"/>
     </row>
     <row r="364" spans="3:8">
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
+      <c r="H364" s="5"/>
     </row>
     <row r="365" spans="3:8">
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
-      <c r="H365" s="5"/>
     </row>
     <row r="366" spans="3:8">
       <c r="C366" s="4"/>
@@ -3014,23 +3006,23 @@
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
+      <c r="H368" s="5"/>
     </row>
     <row r="369" spans="3:8">
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
-      <c r="H369" s="5"/>
     </row>
     <row r="370" spans="3:8">
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
+      <c r="H370" s="5"/>
     </row>
     <row r="371" spans="3:8">
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
-      <c r="H371" s="5"/>
     </row>
     <row r="372" spans="3:8">
       <c r="C372" s="4"/>
@@ -3051,23 +3043,23 @@
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
+      <c r="H375" s="5"/>
     </row>
     <row r="376" spans="3:8">
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
-      <c r="H376" s="5"/>
     </row>
     <row r="377" spans="3:8">
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
+      <c r="H377" s="5"/>
     </row>
     <row r="378" spans="3:8">
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
-      <c r="H378" s="5"/>
     </row>
     <row r="379" spans="3:8">
       <c r="C379" s="4"/>
@@ -3148,12 +3140,12 @@
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
+      <c r="H394" s="5"/>
     </row>
     <row r="395" spans="3:8">
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
-      <c r="H395" s="5"/>
     </row>
     <row r="396" spans="3:8">
       <c r="C396" s="4"/>
@@ -3199,12 +3191,12 @@
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
+      <c r="H404" s="5"/>
     </row>
     <row r="405" spans="3:8">
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
-      <c r="H405" s="5"/>
     </row>
     <row r="406" spans="3:8">
       <c r="C406" s="4"/>
@@ -3225,12 +3217,12 @@
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
+      <c r="H409" s="5"/>
     </row>
     <row r="410" spans="3:8">
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
-      <c r="H410" s="5"/>
     </row>
     <row r="411" spans="3:8">
       <c r="C411" s="4"/>
@@ -3261,12 +3253,12 @@
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
+      <c r="H416" s="5"/>
     </row>
     <row r="417" spans="3:8">
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
-      <c r="H417" s="5"/>
     </row>
     <row r="418" spans="3:8">
       <c r="C418" s="4"/>
@@ -3322,12 +3314,12 @@
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
+      <c r="H428" s="5"/>
     </row>
     <row r="429" spans="3:8">
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
-      <c r="H429" s="5"/>
     </row>
     <row r="430" spans="3:8">
       <c r="C430" s="4"/>
@@ -3363,6 +3355,7 @@
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
+      <c r="H436" s="5"/>
     </row>
     <row r="437" spans="3:8">
       <c r="C437" s="4"/>
@@ -3380,7 +3373,6 @@
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
-      <c r="H439" s="5"/>
     </row>
     <row r="440" spans="3:8">
       <c r="C440" s="4"/>
@@ -3476,23 +3468,23 @@
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
+      <c r="H458" s="5"/>
     </row>
     <row r="459" spans="3:8">
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
-      <c r="H459" s="5"/>
     </row>
     <row r="460" spans="3:8">
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
+      <c r="H460" s="5"/>
     </row>
     <row r="461" spans="3:8">
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
-      <c r="H461" s="5"/>
     </row>
     <row r="462" spans="3:8">
       <c r="C462" s="4"/>
@@ -3503,12 +3495,12 @@
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
+      <c r="H463" s="5"/>
     </row>
     <row r="464" spans="3:8">
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
-      <c r="H464" s="5"/>
     </row>
     <row r="465" spans="3:8">
       <c r="C465" s="4"/>
@@ -3559,23 +3551,23 @@
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
+      <c r="H474" s="5"/>
     </row>
     <row r="475" spans="3:8">
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
-      <c r="H475" s="5"/>
     </row>
     <row r="476" spans="3:8">
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
+      <c r="H476" s="5"/>
     </row>
     <row r="477" spans="3:8">
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
-      <c r="H477" s="5"/>
     </row>
     <row r="478" spans="3:8">
       <c r="C478" s="4"/>
@@ -3626,12 +3618,12 @@
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
+      <c r="H487" s="5"/>
     </row>
     <row r="488" spans="3:9">
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
-      <c r="H488" s="5"/>
     </row>
     <row r="489" spans="3:9">
       <c r="C489" s="4"/>
@@ -3647,12 +3639,12 @@
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
+      <c r="H491" s="5"/>
     </row>
     <row r="492" spans="3:9">
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
-      <c r="H492" s="5"/>
     </row>
     <row r="493" spans="3:9">
       <c r="C493" s="4"/>
@@ -3663,13 +3655,13 @@
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
+      <c r="H494" s="5"/>
+      <c r="I494" s="5"/>
     </row>
     <row r="495" spans="3:9">
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
-      <c r="H495" s="5"/>
-      <c r="I495" s="5"/>
     </row>
     <row r="496" spans="3:9">
       <c r="C496" s="4"/>
@@ -3685,34 +3677,34 @@
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
+      <c r="H498" s="5"/>
     </row>
     <row r="499" spans="3:8">
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
-      <c r="H499" s="5"/>
     </row>
     <row r="500" spans="3:8">
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
+      <c r="H500" s="5"/>
     </row>
     <row r="501" spans="3:8">
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
-      <c r="H501" s="5"/>
     </row>
     <row r="502" spans="3:8">
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
+      <c r="H502" s="5"/>
     </row>
     <row r="503" spans="3:8">
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
-      <c r="H503" s="5"/>
     </row>
     <row r="504" spans="3:8">
       <c r="C504" s="4"/>
@@ -3763,24 +3755,24 @@
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
+      <c r="H513" s="5"/>
+      <c r="I513" s="5"/>
     </row>
     <row r="514" spans="3:9">
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
-      <c r="H514" s="5"/>
-      <c r="I514" s="5"/>
     </row>
     <row r="515" spans="3:9">
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
+      <c r="H515" s="5"/>
     </row>
     <row r="516" spans="3:9">
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
-      <c r="H516" s="5"/>
     </row>
     <row r="517" spans="3:9">
       <c r="C517" s="4"/>
@@ -3796,6 +3788,7 @@
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
+      <c r="H519" s="5"/>
     </row>
     <row r="520" spans="3:9">
       <c r="C520" s="4"/>
@@ -3807,7 +3800,6 @@
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
-      <c r="H521" s="5"/>
     </row>
     <row r="522" spans="3:9">
       <c r="C522" s="4"/>
@@ -3858,13 +3850,13 @@
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
+      <c r="H531" s="5"/>
+      <c r="I531" s="5"/>
     </row>
     <row r="532" spans="3:9">
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
-      <c r="H532" s="5"/>
-      <c r="I532" s="5"/>
     </row>
     <row r="533" spans="3:9">
       <c r="C533" s="4"/>
@@ -3955,12 +3947,12 @@
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
+      <c r="H550" s="5"/>
     </row>
     <row r="551" spans="3:8">
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
-      <c r="H551" s="5"/>
     </row>
     <row r="552" spans="3:8">
       <c r="C552" s="4"/>
@@ -4041,11 +4033,6 @@
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
-    </row>
-    <row r="568" spans="3:5">
-      <c r="C568" s="4"/>
-      <c r="D568" s="4"/>
-      <c r="E568" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
